--- a/log/data_6o_mp_only.xlsx
+++ b/log/data_6o_mp_only.xlsx
@@ -547,7 +547,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>5.5e-05</t>
+          <t>0.000229</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -562,17 +562,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>5.5e-05</t>
+          <t>0.000229</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1.57878</t>
+          <t>1.63984</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1.58329</t>
+          <t>1.64225</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -592,12 +592,12 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>39.307</t>
+          <t>50.483</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>77.6981</t>
+          <t>89.7294</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>9.2e-05</t>
+          <t>0.000213</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -650,17 +650,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>9.2e-05</t>
+          <t>0.000213</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1.25383</t>
+          <t>1.67753</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1.25714</t>
+          <t>1.67977</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -680,12 +680,12 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>37.3086</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>65.8442</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>8.1e-05</t>
+          <t>7.7e-05</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -738,17 +738,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>8.1e-05</t>
+          <t>7.7e-05</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2.08095</t>
+          <t>1.92406</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2.08546</t>
+          <t>1.92625</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -768,12 +768,12 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>42.8103</t>
+          <t>51.4179</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>70.8624</t>
+          <t>81.465</t>
         </is>
       </c>
     </row>
@@ -795,7 +795,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>6.1e-05</t>
+          <t>0.000201</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -826,17 +826,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>6.1e-05</t>
+          <t>0.000201</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2.14208</t>
+          <t>1.07439</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2.14681</t>
+          <t>1.07551</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -856,12 +856,12 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>30.4108</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>54.0793</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -899,7 +899,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>5.1e-05</t>
+          <t>0.000137</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -914,17 +914,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>5.1e-05</t>
+          <t>0.000137</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>1.26588</t>
+          <t>2.20746</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1.27045</t>
+          <t>2.20972</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -944,12 +944,12 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>35.8172</t>
+          <t>46.8378</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>63.9805</t>
+          <t>79.6761</t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>8.9e-05</t>
+          <t>0.000129</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1002,17 +1002,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>8.9e-05</t>
+          <t>0.000129</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1.92246</t>
+          <t>1.98327</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>1.92706</t>
+          <t>1.98554</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>40.8958</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>73.6898</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>6.7e-05</t>
+          <t>0.000157</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1090,17 +1090,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>6.7e-05</t>
+          <t>0.000157</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1.7786</t>
+          <t>1.09613</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1.78306</t>
+          <t>1.0973</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1120,12 +1120,12 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>32.4617</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>58.0174</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>6.7e-05</t>
+          <t>0.000181</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1178,17 +1178,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>6.7e-05</t>
+          <t>0.000181</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2.02481</t>
+          <t>1.05718</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2.02965</t>
+          <t>1.05835</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1208,12 +1208,12 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>34.5437</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>61.128</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>4.9e-05</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1266,17 +1266,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>4.9e-05</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1.32485</t>
+          <t>0.884771</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1.32945</t>
+          <t>0.885946</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1296,12 +1296,12 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>31.9557</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>59.5382</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>6.3e-05</t>
+          <t>0.000128</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1354,17 +1354,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>6.3e-05</t>
+          <t>0.000128</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>1.73896</t>
+          <t>2.06197</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1.74358</t>
+          <t>2.06495</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1384,12 +1384,12 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>35.0625</t>
+          <t>50.507</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>66.2352</t>
+          <t>87.3172</t>
         </is>
       </c>
     </row>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>7.5e-05</t>
+          <t>0.000187</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1442,17 +1442,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>7.5e-05</t>
+          <t>0.000187</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2.18718</t>
+          <t>2.12118</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2.19172</t>
+          <t>2.12356</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1472,12 +1472,12 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>33.1428</t>
+          <t>46.3872</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>70.7699</t>
+          <t>80.403</t>
         </is>
       </c>
     </row>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>6.1e-05</t>
+          <t>7.7e-05</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1530,17 +1530,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>6.1e-05</t>
+          <t>7.7e-05</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>1.9324</t>
+          <t>1.90411</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>1.93678</t>
+          <t>1.90661</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1560,12 +1560,12 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>34.8204</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>68.6111</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>5.7e-05</t>
+          <t>7.3e-05</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1618,17 +1618,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>5.7e-05</t>
+          <t>7.3e-05</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>1.24934</t>
+          <t>1.91478</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>1.25378</t>
+          <t>1.91696</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1648,12 +1648,12 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>32.4826</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>62.3151</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>7.1e-05</t>
+          <t>0.000172</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1706,17 +1706,17 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>7.1e-05</t>
+          <t>0.000172</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2.12319</t>
+          <t>2.23538</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2.12766</t>
+          <t>2.23766</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1736,12 +1736,12 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>38.0703</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>66.7565</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1763,7 +1763,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>6e-05</t>
+          <t>0.000104</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1794,17 +1794,17 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>6e-05</t>
+          <t>0.000104</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>1.38159</t>
+          <t>1.96625</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>1.38607</t>
+          <t>1.96842</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1824,12 +1824,12 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>37.6513</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>70.9992</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1867,7 +1867,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>8.3e-05</t>
+          <t>0.00035</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1882,17 +1882,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>8.3e-05</t>
+          <t>0.00035</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2.00182</t>
+          <t>1.22198</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2.00675</t>
+          <t>1.22353</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1912,12 +1912,12 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>35.3198</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>70.0986</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1939,7 +1939,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>5.2e-05</t>
+          <t>0.000309</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1970,17 +1970,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>5.2e-05</t>
+          <t>0.000309</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>1.30601</t>
+          <t>1.09203</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>1.31042</t>
+          <t>1.09343</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -2000,12 +2000,12 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>35.8522</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>61.3118</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2043,7 +2043,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>7.8e-05</t>
+          <t>0.000241</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2058,17 +2058,17 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>7.8e-05</t>
+          <t>0.000241</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>1.88183</t>
+          <t>0.953644</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>1.88662</t>
+          <t>0.954864</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -2088,12 +2088,12 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>33.432</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>75.0472</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>7.6e-05</t>
+          <t>9.4e-05</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2146,17 +2146,17 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>7.6e-05</t>
+          <t>9.4e-05</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>1.4981</t>
+          <t>2.07573</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>1.50256</t>
+          <t>2.07786</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -2176,12 +2176,12 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>37.6681</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>66.2261</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2219,7 +2219,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0.000108</t>
+          <t>0.000154</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2234,17 +2234,17 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.000108</t>
+          <t>0.000154</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2.20581</t>
+          <t>1.53496</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2.2104</t>
+          <t>1.5373</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -2264,12 +2264,12 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>38.2282</t>
+          <t>52.1236</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>68.1533</t>
+          <t>86.5195</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>7.4e-05</t>
+          <t>0.00031</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2322,17 +2322,17 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>7.4e-05</t>
+          <t>0.00031</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2.19468</t>
+          <t>1.00411</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2.19951</t>
+          <t>1.00541</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2352,12 +2352,12 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>41.7037</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>77.0397</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2395,7 +2395,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>6.3e-05</t>
+          <t>0.000243</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2410,17 +2410,17 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>6.3e-05</t>
+          <t>0.000243</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>1.87724</t>
+          <t>1.12267</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>1.88184</t>
+          <t>1.12397</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2440,12 +2440,12 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>33.8331</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>72.771</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>8.9e-05</t>
+          <t>0.000182</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2498,17 +2498,17 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>8.9e-05</t>
+          <t>0.000182</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2.00491</t>
+          <t>0.993278</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2.00969</t>
+          <t>0.994631</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2528,12 +2528,12 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>39.1873</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>64.016</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2555,7 +2555,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2571,7 +2571,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>5.4e-05</t>
+          <t>0.000336</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2586,17 +2586,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>5.4e-05</t>
+          <t>0.000336</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>1.14417</t>
+          <t>1.07514</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>1.14852</t>
+          <t>1.07655</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2616,12 +2616,12 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>31.7421</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>61.4182</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2659,7 +2659,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>7e-05</t>
+          <t>0.000155</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2674,17 +2674,17 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>7e-05</t>
+          <t>0.000155</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>1.67393</t>
+          <t>1.16554</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>1.67869</t>
+          <t>1.16662</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2704,12 +2704,12 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>36.6308</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>71.5805</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2747,7 +2747,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>7.4e-05</t>
+          <t>0.000216</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2762,17 +2762,17 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>7.4e-05</t>
+          <t>0.000216</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2.15318</t>
+          <t>1.01114</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2.15814</t>
+          <t>1.01244</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2792,12 +2792,12 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>38.6193</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>68.1214</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2819,7 +2819,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>6.6e-05</t>
+          <t>0.000183</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2850,17 +2850,17 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>6.6e-05</t>
+          <t>0.000183</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2.14529</t>
+          <t>2.26475</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2.15009</t>
+          <t>2.26733</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2880,12 +2880,12 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>39.5446</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>73.752</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2923,7 +2923,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>9.4e-05</t>
+          <t>0.000127</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2938,17 +2938,17 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>9.4e-05</t>
+          <t>0.000127</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>1.97278</t>
+          <t>2.01703</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>1.97732</t>
+          <t>2.01948</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2968,12 +2968,12 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>34.4668</t>
+          <t>46.9117</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>66.4675</t>
+          <t>88.2192</t>
         </is>
       </c>
     </row>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>5.9e-05</t>
+          <t>0.000375</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -3026,17 +3026,17 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>5.9e-05</t>
+          <t>0.000375</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2.17116</t>
+          <t>1.89539</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2.17569</t>
+          <t>1.89842</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -3056,12 +3056,12 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>30.9615</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>67.5175</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3083,7 +3083,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>5.7e-05</t>
+          <t>0.000219</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -3114,17 +3114,17 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>5.7e-05</t>
+          <t>0.000219</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>1.58021</t>
+          <t>1.07632</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>1.58503</t>
+          <t>1.07754</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -3144,12 +3144,12 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>36.3642</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>68.1719</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -3187,7 +3187,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>7e-05</t>
+          <t>9.3e-05</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -3202,17 +3202,17 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>7e-05</t>
+          <t>9.3e-05</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2.2352</t>
+          <t>1.94625</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>1.94869</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -3232,12 +3232,12 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>37.0284</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>61.9201</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3259,7 +3259,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>6.9e-05</t>
+          <t>0.000191</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -3290,17 +3290,17 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>6.9e-05</t>
+          <t>0.000191</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2.0033</t>
+          <t>1.62564</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2.00789</t>
+          <t>1.62779</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -3320,12 +3320,12 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>35.6571</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>65.6334</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3347,7 +3347,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -3363,7 +3363,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>7.8e-05</t>
+          <t>0.000198</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -3378,17 +3378,17 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>7.8e-05</t>
+          <t>0.000198</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>1.98017</t>
+          <t>1.03519</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>1.98461</t>
+          <t>1.03635</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -3408,12 +3408,12 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>33.9471</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>75.8389</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3435,7 +3435,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>6.2e-05</t>
+          <t>0.000131</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -3466,17 +3466,17 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>6.2e-05</t>
+          <t>0.000131</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>1.92492</t>
+          <t>0.953634</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>1.92949</t>
+          <t>0.954726</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -3496,12 +3496,12 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>37.4339</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>74.5058</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3523,7 +3523,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -3539,7 +3539,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>7.6e-05</t>
+          <t>0.000123</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3554,17 +3554,17 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>7.6e-05</t>
+          <t>0.000123</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>1.82643</t>
+          <t>2.22324</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>1.83095</t>
+          <t>2.22586</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -3584,12 +3584,12 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>32.6907</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>63.0299</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3611,7 +3611,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -3627,7 +3627,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>5.4e-05</t>
+          <t>0.000129</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3642,17 +3642,17 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>5.4e-05</t>
+          <t>0.000129</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>1.51509</t>
+          <t>1.93256</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>1.51962</t>
+          <t>1.93486</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -3672,12 +3672,12 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>34.7085</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>65.6417</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>6.6e-05</t>
+          <t>0.000106</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3730,17 +3730,17 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>6.6e-05</t>
+          <t>0.000106</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>2.44782</t>
+          <t>1.73422</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2.45257</t>
+          <t>1.7365</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3760,12 +3760,12 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>33.5914</t>
+          <t>56.3237</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>61.7877</t>
+          <t>96.6173</t>
         </is>
       </c>
     </row>
@@ -3787,7 +3787,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3803,7 +3803,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>7.5e-05</t>
+          <t>8.8e-05</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3818,17 +3818,17 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>7.5e-05</t>
+          <t>8.8e-05</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>1.72089</t>
+          <t>1.92376</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>1.72554</t>
+          <t>1.92593</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3848,12 +3848,12 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>34.6192</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>65.5499</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3875,7 +3875,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>7.8e-05</t>
+          <t>0.000164</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3906,17 +3906,17 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>7.8e-05</t>
+          <t>0.000164</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>2.39579</t>
+          <t>0.978854</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2.40045</t>
+          <t>0.979974</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3936,12 +3936,12 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>29.7456</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>67.7708</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3979,7 +3979,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0.000128</t>
+          <t>0.000121</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3994,17 +3994,17 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>0.000128</t>
+          <t>0.000121</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>2.37294</t>
+          <t>2.27199</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2.3778</t>
+          <t>2.27436</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -4024,12 +4024,12 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>39.2143</t>
+          <t>53.7785</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>68.2053</t>
+          <t>92.7725</t>
         </is>
       </c>
     </row>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>8.1e-05</t>
+          <t>0.000133</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -4082,17 +4082,17 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>8.1e-05</t>
+          <t>0.000133</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>2.10425</t>
+          <t>1.93834</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2.10937</t>
+          <t>1.94083</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -4112,12 +4112,12 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>33.6153</t>
+          <t>53.2897</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>76.0782</t>
+          <t>83.7428</t>
         </is>
       </c>
     </row>
@@ -4139,7 +4139,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -4155,7 +4155,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>7e-05</t>
+          <t>0.000125</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -4170,17 +4170,17 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>7e-05</t>
+          <t>0.000125</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>1.37873</t>
+          <t>1.87187</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>1.38353</t>
+          <t>1.87432</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -4200,12 +4200,12 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>35.972</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>72.1265</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -4243,7 +4243,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>6.9e-05</t>
+          <t>0.000138</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -4258,17 +4258,17 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>6.9e-05</t>
+          <t>0.000138</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>1.39991</t>
+          <t>2.00816</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>1.40514</t>
+          <t>2.01051</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -4288,12 +4288,12 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>31.6234</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>62.575</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4331,7 +4331,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>0.000108</t>
+          <t>0.000135</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -4346,17 +4346,17 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>0.000108</t>
+          <t>0.000135</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>2.11688</t>
+          <t>1.92134</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2.12075</t>
+          <t>1.92369</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -4376,12 +4376,12 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>33.6222</t>
+          <t>50.9622</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>66.1577</t>
+          <t>84.9877</t>
         </is>
       </c>
     </row>
@@ -4403,7 +4403,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -4419,7 +4419,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>6.5e-05</t>
+          <t>0.000292</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -4434,17 +4434,17 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>6.5e-05</t>
+          <t>0.000292</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>1.37132</t>
+          <t>1.12436</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>1.37628</t>
+          <t>1.12566</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -4464,12 +4464,12 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>37.2797</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>65.2465</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4491,7 +4491,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -4507,7 +4507,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>7.6e-05</t>
+          <t>0.0001</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -4522,17 +4522,17 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>7.6e-05</t>
+          <t>0.0001</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>1.3564</t>
+          <t>1.9565</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>1.36139</t>
+          <t>1.95861</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -4552,12 +4552,12 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>34.634</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>68.4134</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4579,7 +4579,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -4595,7 +4595,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>6.7e-05</t>
+          <t>0.000145</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -4610,17 +4610,17 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>6.7e-05</t>
+          <t>0.000145</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>1.54803</t>
+          <t>2.08074</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>1.55308</t>
+          <t>2.08298</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -4640,12 +4640,12 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>33.5197</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>64.3198</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4667,7 +4667,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>8.7e-05</t>
+          <t>0.000155</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -4698,17 +4698,17 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>8.7e-05</t>
+          <t>0.000155</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>2.21689</t>
+          <t>1.78379</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2.22083</t>
+          <t>1.78619</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -4728,12 +4728,12 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>36.9427</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>68.0725</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4755,7 +4755,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -4771,7 +4771,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>6.6e-05</t>
+          <t>0.000162</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -4786,17 +4786,17 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>6.6e-05</t>
+          <t>0.000162</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>1.99899</t>
+          <t>1.19143</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2.00365</t>
+          <t>1.19265</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -4816,12 +4816,12 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>31.7684</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>58.0264</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4843,7 +4843,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -4859,7 +4859,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>8e-05</t>
+          <t>0.000116</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4874,17 +4874,17 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>8e-05</t>
+          <t>0.000116</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>2.22549</t>
+          <t>2.12039</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2.23084</t>
+          <t>2.12265</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -4904,12 +4904,12 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>35.2204</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>64.4652</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4931,7 +4931,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -4947,7 +4947,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>6.4e-05</t>
+          <t>0.000192</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4962,17 +4962,17 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>6.4e-05</t>
+          <t>0.000192</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>1.24682</t>
+          <t>1.09626</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>1.25162</t>
+          <t>1.09751</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -4992,12 +4992,12 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>32.587</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>60.5712</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -5019,7 +5019,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -5035,7 +5035,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>0.000106</t>
+          <t>0.000215</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -5050,17 +5050,17 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>0.000106</t>
+          <t>0.000215</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>2.11155</t>
+          <t>1.09966</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2.1162</t>
+          <t>1.10097</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -5080,12 +5080,12 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>33.7789</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>67.6677</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -5107,7 +5107,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -5123,7 +5123,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>0.000145</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -5138,17 +5138,17 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>0.000145</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>1.93716</t>
+          <t>0.91648</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>1.94233</t>
+          <t>0.917488</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -5168,12 +5168,12 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>35.4688</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>73.0307</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -5195,7 +5195,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -5211,7 +5211,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>6.8e-05</t>
+          <t>0.000157</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -5226,17 +5226,17 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>6.8e-05</t>
+          <t>0.000157</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>1.63629</t>
+          <t>1.07164</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>1.64147</t>
+          <t>1.07281</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -5256,12 +5256,12 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>36.2554</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>67.0423</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -5283,7 +5283,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -5299,7 +5299,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>7.2e-05</t>
+          <t>0.000174</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -5314,17 +5314,17 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>7.2e-05</t>
+          <t>0.000174</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>1.02966</t>
+          <t>1.13275</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>1.03294</t>
+          <t>1.13394</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -5344,12 +5344,12 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>39.0401</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>69.4178</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -5371,7 +5371,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -5387,7 +5387,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>0.000115</t>
+          <t>7.5e-05</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -5402,17 +5402,17 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>0.000115</t>
+          <t>7.5e-05</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>2.23799</t>
+          <t>1.96643</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2.2432</t>
+          <t>1.96858</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -5432,12 +5432,12 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>41.3661</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>64.1004</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -5459,7 +5459,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -5475,7 +5475,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>6.7e-05</t>
+          <t>0.000183</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -5490,17 +5490,17 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>6.7e-05</t>
+          <t>0.000183</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>1.98639</t>
+          <t>0.928504</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>1.99135</t>
+          <t>0.929697</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -5520,12 +5520,12 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>32.5261</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>66.9406</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -5547,7 +5547,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -5563,7 +5563,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>7.4e-05</t>
+          <t>0.000158</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -5578,17 +5578,17 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>7.4e-05</t>
+          <t>0.000158</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>1.30096</t>
+          <t>0.909945</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>1.30584</t>
+          <t>0.911094</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -5608,12 +5608,12 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>36.1002</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>65.2842</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -5635,7 +5635,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -5651,7 +5651,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>6.7e-05</t>
+          <t>0.000139</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -5666,17 +5666,17 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>6.7e-05</t>
+          <t>0.000139</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>1.31991</t>
+          <t>0.867015</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>1.32479</t>
+          <t>0.868157</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -5696,12 +5696,12 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>34.7864</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>60.0682</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -5739,7 +5739,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>8.2e-05</t>
+          <t>0.000144</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -5754,17 +5754,17 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>8.2e-05</t>
+          <t>0.000144</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>1.9116</t>
+          <t>1.77087</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>1.91621</t>
+          <t>1.77324</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -5784,12 +5784,12 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>31.1983</t>
+          <t>46.5202</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>64.8913</t>
+          <t>69.353</t>
         </is>
       </c>
     </row>
@@ -5827,7 +5827,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>7.6e-05</t>
+          <t>7.5e-05</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -5842,17 +5842,17 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>7.6e-05</t>
+          <t>7.5e-05</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>2.00455</t>
+          <t>1.90702</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2.0083</t>
+          <t>1.90925</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -5872,12 +5872,12 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>33.2797</t>
+          <t>51.4968</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>64.7939</t>
+          <t>74.8603</t>
         </is>
       </c>
     </row>
@@ -5899,7 +5899,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -5915,7 +5915,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>9e-05</t>
+          <t>0.000142</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -5930,17 +5930,17 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>9e-05</t>
+          <t>0.000142</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>1.93281</t>
+          <t>1.79861</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>1.93731</t>
+          <t>1.80095</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -5960,12 +5960,12 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>40.5364</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>62.5396</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -5987,7 +5987,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -6003,7 +6003,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>8.2e-05</t>
+          <t>0.000123</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -6018,17 +6018,17 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>8.2e-05</t>
+          <t>0.000123</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>2.18633</t>
+          <t>1.59307</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2.191</t>
+          <t>1.59533</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -6048,12 +6048,12 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>36.0183</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>56.8434</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6075,7 +6075,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>7.2e-05</t>
+          <t>0.000199</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -6106,17 +6106,17 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>7.2e-05</t>
+          <t>0.000199</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>1.74516</t>
+          <t>0.978707</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>1.74968</t>
+          <t>0.981668</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -6136,12 +6136,12 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>41.6311</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>78.8143</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6179,7 +6179,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>7.7e-05</t>
+          <t>0.000129</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -6194,17 +6194,17 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>7.7e-05</t>
+          <t>0.000129</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>1.27801</t>
+          <t>2.09371</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>1.28129</t>
+          <t>2.09604</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -6224,12 +6224,12 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>33.3884</t>
+          <t>50.5551</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>65.6378</t>
+          <t>75.6402</t>
         </is>
       </c>
     </row>
@@ -6251,7 +6251,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -6267,7 +6267,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>7.9e-05</t>
+          <t>8.2e-05</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -6282,17 +6282,17 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>7.9e-05</t>
+          <t>8.2e-05</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>2.24345</t>
+          <t>1.86195</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>2.2483</t>
+          <t>1.86402</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -6312,12 +6312,12 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>37.8816</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>66.1498</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6339,7 +6339,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -6355,7 +6355,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>8.5e-05</t>
+          <t>0.000147</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -6370,17 +6370,17 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>8.5e-05</t>
+          <t>0.000147</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>2.2312</t>
+          <t>1.16422</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>2.23623</t>
+          <t>1.16534</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -6400,12 +6400,12 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>33.1631</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>54.5867</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6427,7 +6427,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -6443,7 +6443,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>7.9e-05</t>
+          <t>0.000158</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -6458,17 +6458,17 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>7.9e-05</t>
+          <t>0.000158</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>2.30108</t>
+          <t>2.27956</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2.30605</t>
+          <t>2.28212</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -6488,12 +6488,12 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>33.1745</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>67.2945</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6515,7 +6515,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -6531,7 +6531,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>6.6e-05</t>
+          <t>0.000166</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -6546,17 +6546,17 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>6.6e-05</t>
+          <t>0.000166</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>1.6873</t>
+          <t>2.21998</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>1.69225</t>
+          <t>2.22276</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -6576,12 +6576,12 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>33.0925</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>62.3903</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6603,7 +6603,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -6619,7 +6619,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>7.5e-05</t>
+          <t>0.0005</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -6634,17 +6634,17 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>7.5e-05</t>
+          <t>0.0005</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>2.25816</t>
+          <t>2.11733</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>2.26321</t>
+          <t>2.1202</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -6664,12 +6664,12 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>34.6923</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>60.7714</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6691,7 +6691,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -6707,7 +6707,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>0.000129</t>
+          <t>0.000162</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -6722,17 +6722,17 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>0.000129</t>
+          <t>0.000162</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>2.13096</t>
+          <t>1.12821</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>2.13508</t>
+          <t>1.12937</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -6752,12 +6752,12 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>47.0163</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>83.0013</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6779,7 +6779,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -6795,7 +6795,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>0.000105</t>
+          <t>0.000148</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -6810,17 +6810,17 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>0.000105</t>
+          <t>0.000148</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>1.94617</t>
+          <t>1.89748</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>1.95083</t>
+          <t>1.89978</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -6840,12 +6840,12 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>38.2692</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>62.8444</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6883,7 +6883,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>8.5e-05</t>
+          <t>0.000137</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -6898,17 +6898,17 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>8.5e-05</t>
+          <t>0.000137</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>2.00298</t>
+          <t>1.95335</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>2.00771</t>
+          <t>1.95574</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -6928,12 +6928,12 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>33.5674</t>
+          <t>47.0105</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>67.6454</t>
+          <t>83.3909</t>
         </is>
       </c>
     </row>
@@ -6955,7 +6955,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -6971,7 +6971,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>0.00011</t>
+          <t>0.000167</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -6986,17 +6986,17 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>0.00011</t>
+          <t>0.000167</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>2.45267</t>
+          <t>2.08232</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>2.4575</t>
+          <t>2.08467</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -7016,12 +7016,12 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>32.9734</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>67.3462</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7043,7 +7043,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -7059,7 +7059,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>9.9e-05</t>
+          <t>0.000149</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -7074,17 +7074,17 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>9.9e-05</t>
+          <t>0.000149</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>2.00304</t>
+          <t>1.78247</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>2.00816</t>
+          <t>1.78476</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -7104,12 +7104,12 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>38.3317</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>64.7877</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7131,7 +7131,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -7147,7 +7147,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>8e-05</t>
+          <t>0.00015</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -7162,17 +7162,17 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>8e-05</t>
+          <t>0.00015</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>2.11514</t>
+          <t>2.04965</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>2.12001</t>
+          <t>2.05186</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -7192,12 +7192,12 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>38.2611</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>67.0332</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7219,7 +7219,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -7235,7 +7235,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>6.8e-05</t>
+          <t>0.000166</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -7250,17 +7250,17 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>6.8e-05</t>
+          <t>0.000166</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>1.66322</t>
+          <t>1.09602</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>1.66781</t>
+          <t>1.09723</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -7280,12 +7280,12 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>33.2194</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>64.3448</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7323,7 +7323,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>8.3e-05</t>
+          <t>0.000118</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -7338,17 +7338,17 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>8.3e-05</t>
+          <t>0.000118</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>1.92054</t>
+          <t>2.03981</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>1.92562</t>
+          <t>2.04205</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -7368,12 +7368,12 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>34.9827</t>
+          <t>51.0174</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>61.7948</t>
+          <t>83.1869</t>
         </is>
       </c>
     </row>
@@ -7395,7 +7395,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -7411,7 +7411,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>7.2e-05</t>
+          <t>9.1e-05</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -7426,17 +7426,17 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>7.2e-05</t>
+          <t>9.1e-05</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>2.16738</t>
+          <t>2.09295</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>2.17224</t>
+          <t>2.09515</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -7456,12 +7456,12 @@
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>28.4981</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>59.3382</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7483,7 +7483,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -7499,7 +7499,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>8.3e-05</t>
+          <t>8.4e-05</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -7514,17 +7514,17 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>8.3e-05</t>
+          <t>8.4e-05</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>2.13266</t>
+          <t>1.90182</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>2.13774</t>
+          <t>1.90399</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -7544,12 +7544,12 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>32.8103</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>70.0772</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7587,7 +7587,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>7.1e-05</t>
+          <t>8.7e-05</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -7602,17 +7602,17 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>7.1e-05</t>
+          <t>8.7e-05</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>1.79771</t>
+          <t>1.80635</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>1.80246</t>
+          <t>1.80855</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -7632,12 +7632,12 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>32.1628</t>
+          <t>49.9625</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>64.2652</t>
+          <t>81.5848</t>
         </is>
       </c>
     </row>
@@ -7659,7 +7659,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -7675,7 +7675,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>7.5e-05</t>
+          <t>0.000191</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -7690,17 +7690,17 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>7.5e-05</t>
+          <t>0.000191</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>2.26374</t>
+          <t>1.9217</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>2.26876</t>
+          <t>1.92426</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -7720,12 +7720,12 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>31.6274</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>66.004</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7747,7 +7747,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -7763,7 +7763,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>6.8e-05</t>
+          <t>0.000328</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -7778,17 +7778,17 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>6.8e-05</t>
+          <t>0.000328</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>1.3138</t>
+          <t>2.18643</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>1.31848</t>
+          <t>2.18907</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -7808,12 +7808,12 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>39.7169</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>66.5231</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7835,7 +7835,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -7851,7 +7851,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>9e-05</t>
+          <t>0.000151</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -7866,17 +7866,17 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>9e-05</t>
+          <t>0.000151</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>1.9153</t>
+          <t>1.13147</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>1.91982</t>
+          <t>1.13259</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -7896,12 +7896,12 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>34.3472</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>69.9252</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7923,7 +7923,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -7939,7 +7939,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>8.7e-05</t>
+          <t>0.000212</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -7954,17 +7954,17 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>8.7e-05</t>
+          <t>0.000212</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>1.88213</t>
+          <t>1.02062</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>1.88722</t>
+          <t>1.02175</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -7984,12 +7984,12 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>34.2243</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>61.3419</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8011,7 +8011,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -8027,7 +8027,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>0.000129</t>
+          <t>0.000438</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -8042,17 +8042,17 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>0.000129</t>
+          <t>0.000438</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>1.7113</t>
+          <t>1.08111</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>1.71643</t>
+          <t>1.08261</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -8072,12 +8072,12 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>34.7904</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>71.3705</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8115,7 +8115,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>6.1e-05</t>
+          <t>0.000167</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -8130,17 +8130,17 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>6.1e-05</t>
+          <t>0.000167</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>1.12236</t>
+          <t>1.55861</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>1.1273</t>
+          <t>1.56092</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -8160,12 +8160,12 @@
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>36.1685</t>
+          <t>40.2077</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>63.0697</t>
+          <t>74.7139</t>
         </is>
       </c>
     </row>
@@ -8187,7 +8187,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -8203,7 +8203,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>6.3e-05</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -8218,17 +8218,17 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>6.3e-05</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>1.99693</t>
+          <t>2.16783</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>2.00182</t>
+          <t>2.16996</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -8248,12 +8248,12 @@
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>34.6654</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>65.085</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8275,7 +8275,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -8291,7 +8291,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>0.000115</t>
+          <t>0.00022</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -8306,17 +8306,17 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>0.000115</t>
+          <t>0.00022</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>1.71253</t>
+          <t>0.893362</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>1.71735</t>
+          <t>0.894524</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -8336,12 +8336,12 @@
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>33.5862</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>64.8774</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8363,7 +8363,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -8379,7 +8379,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>5.8e-05</t>
+          <t>0.00017</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -8394,17 +8394,17 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>5.8e-05</t>
+          <t>0.00017</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>1.29094</t>
+          <t>1.12046</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>1.29584</t>
+          <t>1.12183</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -8424,12 +8424,12 @@
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>35.269</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>71.1117</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8451,7 +8451,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -8467,7 +8467,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>7e-05</t>
+          <t>0.000311</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -8482,17 +8482,17 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>7e-05</t>
+          <t>0.000311</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>1.38581</t>
+          <t>1.91246</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>1.39092</t>
+          <t>1.91488</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -8512,12 +8512,12 @@
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>33.484</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>67.8967</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8555,7 +8555,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>0.000105</t>
+          <t>8.6e-05</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -8570,17 +8570,17 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>0.000105</t>
+          <t>8.6e-05</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>2.01189</t>
+          <t>2.05994</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>2.0168</t>
+          <t>2.06219</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -8600,12 +8600,12 @@
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>36.0588</t>
+          <t>46.3765</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>77.2378</t>
+          <t>75.5154</t>
         </is>
       </c>
     </row>
@@ -8643,7 +8643,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>9.7e-05</t>
+          <t>7.9e-05</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -8658,17 +8658,17 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>9.7e-05</t>
+          <t>7.9e-05</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>2.06619</t>
+          <t>1.76042</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>2.07123</t>
+          <t>1.7625</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -8688,12 +8688,12 @@
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>32.0943</t>
+          <t>45.9194</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>66.8995</t>
+          <t>77.0861</t>
         </is>
       </c>
     </row>
@@ -8731,7 +8731,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>5.9e-05</t>
+          <t>6.4e-05</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -8746,17 +8746,17 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>5.9e-05</t>
+          <t>6.4e-05</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>1.33919</t>
+          <t>1.67699</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>1.344</t>
+          <t>1.67929</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -8776,12 +8776,12 @@
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>31.7674</t>
+          <t>51.3297</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>63.1409</t>
+          <t>84.7726</t>
         </is>
       </c>
     </row>
@@ -8803,7 +8803,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -8819,7 +8819,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>8.7e-05</t>
+          <t>0.000124</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -8834,17 +8834,17 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>8.7e-05</t>
+          <t>0.000124</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>1.7564</t>
+          <t>2.17301</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>1.76131</t>
+          <t>2.17522</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -8864,12 +8864,12 @@
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>31.0832</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>55.6127</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8907,7 +8907,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>9.3e-05</t>
+          <t>0.000133</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -8922,17 +8922,17 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>9.3e-05</t>
+          <t>0.000133</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>2.047</t>
+          <t>2.00979</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>2.05207</t>
+          <t>2.01231</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -8952,12 +8952,12 @@
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>42.6162</t>
+          <t>56.957</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>68.2719</t>
+          <t>83.8731</t>
         </is>
       </c>
     </row>
@@ -8979,7 +8979,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -8995,7 +8995,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>9.7e-05</t>
+          <t>0.000134</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -9010,17 +9010,17 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>9.7e-05</t>
+          <t>0.000134</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>2.07293</t>
+          <t>1.0733</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>2.07805</t>
+          <t>1.07444</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -9040,12 +9040,12 @@
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>32.9756</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>64.2589</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9067,7 +9067,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -9083,7 +9083,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>8.5e-05</t>
+          <t>0.000104</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -9098,17 +9098,17 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>8.5e-05</t>
+          <t>0.000104</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>0.933555</t>
+          <t>1.72071</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>0.938315</t>
+          <t>1.72295</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -9128,12 +9128,12 @@
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>36.9443</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>61.3348</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9171,7 +9171,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>0.000123</t>
+          <t>0.000153</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -9186,17 +9186,17 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>0.000123</t>
+          <t>0.000153</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>2.031</t>
+          <t>2.13086</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>2.03579</t>
+          <t>2.13322</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -9216,12 +9216,12 @@
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>32.4137</t>
+          <t>46.3947</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>65.9587</t>
+          <t>77.7126</t>
         </is>
       </c>
     </row>
@@ -9243,7 +9243,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -9259,7 +9259,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>8.8e-05</t>
+          <t>0.000322</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -9274,17 +9274,17 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>8.8e-05</t>
+          <t>0.000322</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>1.44464</t>
+          <t>1.87611</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>1.4492</t>
+          <t>1.87879</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
@@ -9304,12 +9304,12 @@
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>35.8822</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>71.3313</t>
+          <t>0</t>
         </is>
       </c>
     </row>
